--- a/examples/reports/az-az/RegistryCompaniesReportTemplate.xlsx
+++ b/examples/reports/az-az/RegistryCompaniesReportTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\bidzaar\src\etplight\backend\services\reportgenerator\src\Cognitive.ReportGenerator\Templates\az-az\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB8D9F4-9B9B-4B05-BB5E-A41CED745629}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8142DB02-F979-458E-B466-E06E26CE559B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t xml:space="preserve">Reyestrin şirkətləri </t>
   </si>
   <si>
-    <t>ProcureSaaS xidməti tərəfindən $.Now -da yaradılıb. Sənəddəki vaxt $.Tz vaxtıdır</t>
-  </si>
-  <si>
     <t>Reyestr</t>
   </si>
   <si>
@@ -111,10 +108,13 @@
     <t>$.Companies[*].ContactEmail</t>
   </si>
   <si>
-    <t>TIN</t>
-  </si>
-  <si>
     <t>$.Companies[*].Tin</t>
+  </si>
+  <si>
+    <t>$.FieldTin</t>
+  </si>
+  <si>
+    <t>Sənəd $.Now formalaşdırılıb, sənəddəki vaxt saat qurşağında göstərilir $.Tz</t>
   </si>
 </sst>
 </file>
@@ -618,7 +618,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4"/>
@@ -643,7 +643,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.6">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2"/>
     </row>
@@ -653,26 +653,26 @@
     </row>
     <row r="4" spans="1:11" ht="15.6">
       <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6">
       <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.6">
       <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6">
@@ -680,72 +680,72 @@
     </row>
     <row r="8" spans="1:11" ht="16.2" thickBot="1">
       <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6">
       <c r="A9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.6">
